--- a/sg02/Assets/Resources/Config/Excel/Battle.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/Battle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,62 @@
   </si>
   <si>
     <t>Battle9</t>
+  </si>
+  <si>
+    <t>ShortName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锥形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -525,53 +581,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -579,34 +638,37 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -614,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -640,319 +702,349 @@
       <c r="K3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-18</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>19</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-6</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>23</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-23</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>-15</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
         <v>-7</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-12</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>22</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>21</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>6</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>12</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-24</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-19</v>
+      </c>
+      <c r="H6">
+        <v>-11</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>-25</v>
+      </c>
+      <c r="K6">
+        <v>-7</v>
+      </c>
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-19</v>
-      </c>
-      <c r="G6">
-        <v>-11</v>
-      </c>
-      <c r="H6">
-        <v>25</v>
-      </c>
-      <c r="I6">
-        <v>-25</v>
-      </c>
-      <c r="J6">
-        <v>-7</v>
-      </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
         <v>-19</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-22</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-11</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>15</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
         <v>-13</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-21</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>11</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-18</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-6</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>24</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-6</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-25</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>11</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>18</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>23</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-10</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-17</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
         <v>-23</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-12</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>25</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-3</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-23</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>14</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
         <v>23</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>24</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-15</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-24</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-14</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-12</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>256</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>18</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-6</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-20</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-19</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>17</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-15</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>12</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0</v>
       </c>
     </row>
